--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N2">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q2">
-        <v>3.246887358309445</v>
+        <v>3.278521419521666</v>
       </c>
       <c r="R2">
-        <v>29.22198622478501</v>
+        <v>29.50669277569499</v>
       </c>
       <c r="S2">
-        <v>0.05109184448500712</v>
+        <v>0.02054554069939457</v>
       </c>
       <c r="T2">
-        <v>0.0526549600416291</v>
+        <v>0.02122260470439368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N3">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O3">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P3">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q3">
-        <v>13.91631529326667</v>
+        <v>35.49854985312</v>
       </c>
       <c r="R3">
-        <v>125.2468376394</v>
+        <v>319.48694867808</v>
       </c>
       <c r="S3">
-        <v>0.2189821014111522</v>
+        <v>0.2224590928197057</v>
       </c>
       <c r="T3">
-        <v>0.2256816898246805</v>
+        <v>0.2297900775105793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H4">
         <v>246.746613</v>
       </c>
       <c r="I4">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J4">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N4">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O4">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P4">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q4">
-        <v>1.760098423109667</v>
+        <v>1.862470851214333</v>
       </c>
       <c r="R4">
-        <v>15.840885807987</v>
+        <v>16.762237660929</v>
       </c>
       <c r="S4">
-        <v>0.02769627184068604</v>
+        <v>0.01167156342100184</v>
       </c>
       <c r="T4">
-        <v>0.02854361790562037</v>
+        <v>0.01205619167635156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
         <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N5">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O5">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P5">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q5">
-        <v>7.543866448120002</v>
+        <v>20.166107187264</v>
       </c>
       <c r="R5">
-        <v>67.89479803308001</v>
+        <v>181.494964685376</v>
       </c>
       <c r="S5">
-        <v>0.118707552449153</v>
+        <v>0.1263751316362408</v>
       </c>
       <c r="T5">
-        <v>0.1223393184147806</v>
+        <v>0.1305397362095556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H6">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I6">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J6">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N6">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O6">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P6">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q6">
-        <v>2.641667321293</v>
+        <v>3.710479861204778</v>
       </c>
       <c r="R6">
-        <v>23.775005891637</v>
+        <v>33.394318750843</v>
       </c>
       <c r="S6">
-        <v>0.04156832099987012</v>
+        <v>0.02325249868698101</v>
       </c>
       <c r="T6">
-        <v>0.04284007170436113</v>
+        <v>0.02401876860986057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H7">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I7">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J7">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N7">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O7">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P7">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q7">
-        <v>11.32231312212</v>
+        <v>40.175627204288</v>
       </c>
       <c r="R7">
-        <v>101.90081809908</v>
+        <v>361.580644838592</v>
       </c>
       <c r="S7">
-        <v>0.1781638219648945</v>
+        <v>0.2517689769950724</v>
       </c>
       <c r="T7">
-        <v>0.1836146066164895</v>
+        <v>0.2600658485348824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H8">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I8">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J8">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N8">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O8">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P8">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q8">
-        <v>1.0706748100625</v>
+        <v>1.2912661502545</v>
       </c>
       <c r="R8">
-        <v>6.424048860375001</v>
+        <v>7.747596901526999</v>
       </c>
       <c r="S8">
-        <v>0.01684775135476515</v>
+        <v>0.008091989604165843</v>
       </c>
       <c r="T8">
-        <v>0.01157546353784879</v>
+        <v>0.005572436995905244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H9">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I9">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J9">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N9">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O9">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P9">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q9">
-        <v>4.588963702500001</v>
+        <v>13.981325708448</v>
       </c>
       <c r="R9">
-        <v>27.533782215</v>
+        <v>83.887954250688</v>
       </c>
       <c r="S9">
-        <v>0.07221027216587765</v>
+        <v>0.08761690396896051</v>
       </c>
       <c r="T9">
-        <v>0.04961299314747074</v>
+        <v>0.06033617206971715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H10">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I10">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J10">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N10">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O10">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P10">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q10">
-        <v>3.302888253007778</v>
+        <v>3.348862153744444</v>
       </c>
       <c r="R10">
-        <v>29.72599427707</v>
+        <v>30.1397593837</v>
       </c>
       <c r="S10">
-        <v>0.05197305429834607</v>
+        <v>0.02098634563334868</v>
       </c>
       <c r="T10">
-        <v>0.05356312978921514</v>
+        <v>0.02167793605838088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H11">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I11">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J11">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N11">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O11">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P11">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q11">
-        <v>14.15633781986667</v>
+        <v>36.2601718592</v>
       </c>
       <c r="R11">
-        <v>127.4070403788</v>
+        <v>326.3415467328</v>
       </c>
       <c r="S11">
-        <v>0.2227590090302482</v>
+        <v>0.2272319565351285</v>
       </c>
       <c r="T11">
-        <v>0.2295741490179043</v>
+        <v>0.2347202276303737</v>
       </c>
     </row>
   </sheetData>
